--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 100647554, 72589900.0, 13400000.0, 2012952, 6000000.0, 194650406.0, 122060506.0]</t>
+          <t>['Valor aproximado', 91747554, 72589900.0, 13400000.0, 1834952, 6000000.0, 185572406.0, 112982506.0]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [297336200, 474163297], [3865250, 6163930], [8640.0, 14400.0], [103680.0, 172800.0], [6103025.0, 9732520.3], [152202240.0, 253670400.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [275222429, 452049526], [3577780, 5876460], [8640.0, 14400.0], [103680.0, 172800.0], [5649125.0, 9278620.3], [152202240.0, 253670400.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 91747554, 72589900.0, 13400000.0, 1834952, 6000000.0, 185572406.0, 112982506.0]</t>
+          <t>['Valor aproximado', 73547554, 72589900.0, 13400000.0, 1470952, 6000000.0, 167008406.0, 94418506.0]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [275222429, 452049526], [3577780, 5876460], [8640.0, 14400.0], [103680.0, 172800.0], [5649125.0, 9278620.3], [152202240.0, 253670400.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [230001011, 406828108], [2989920, 5288600], [8640.0, 14400.0], [103680.0, 172800.0], [4720925.0, 8350420.300000001], [152202240.0, 253670400.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 73547554, 72589900.0, 13400000.0, 1470952, 6000000.0, 167008406.0, 94418506.0]</t>
+          <t>['Valor aproximado', 88607554, 72589900.0, 13400000.0, 1772152, 6000000.0, 182369606.0, 109779706.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [60.0, 100.0], [79, 48], [51, 31], [0, 2], [200, 120], [39, 24], [3, 2], [278, 167], [650, 394]]</t>
+          <t>[['NO', 'SI'], [64.8, 108.0], [104, 62], [67, 41], [0, 2], [334, 200], [37, 22], [3, 2], [258, 155], [803, 484]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [230001011, 406828108], [2989920, 5288600], [8640.0, 14400.0], [103680.0, 172800.0], [4720925.0, 8350420.300000001], [152202240.0, 253670400.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [267420492, 444247589], [3476358, 5775038], [9331.0, 15552.0], [111974.0, 186624.0], [5488985.0, 9118480.3], [164378419.0, 273964032.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 88607554, 72589900.0, 13400000.0, 1772152, 6000000.0, 182369606.0, 109779706.0]</t>
+          <t>['Valor aproximado', 85614221, 72589900.0, 13400000.0, 1712285, 6000000.0, 179316406.0, 106726506.0]</t>
         </is>
       </c>
     </row>
@@ -395,12 +395,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['¿El diseño incorpora recuperador de calor?', 'Capacidad de la hornilla', 'Costo de funcionamiento del molino por kg (Motor eléctrico)', 'Costo de funcionamiento del molino por kg (Motor diesel o gasolina)', 'Costo de funcionamiento del controlador por kg', 'Costo del kg de caña', 'Costo de los insumos para la producción (Cera-Empaques-Clarificante)', 'Costo del mantenimiento de la hornilla por kg', 'Costo de los operarios por kg', 'Valor total del kg de caña']</t>
+          <t>['¿El diseño incorpora recuperador de calor?', 'Capacidad de la hornilla [kg/h]', 'Costo de funcionamiento del molino por kg (Motor eléctrico)', 'Costo de funcionamiento del molino por kg (Motor diesel o gasolina)', 'Costo de funcionamiento del controlador por kg', 'Costo del kg de caña', 'Costo de los insumos para la producción (Cera-Empaques-Clarificante)', 'Costo del mantenimiento de la hornilla por kg', 'Costo de los operarios por kg', 'Valor total del kg de caña']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [64.8, 108.0], [104, 62], [67, 41], [0, 2], [334, 200], [37, 22], [3, 2], [258, 155], [803, 484]]</t>
+          <t>[['NO', 'SI'], [24.0, 40.0], [140, 84], [84, 51], [0, 8], [322, 193], [98, 59], [8, 5], [695, 417], [1347, 817]]</t>
         </is>
       </c>
     </row>
@@ -410,12 +410,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['¿El diseño incorpora recuperador de calor?', 'Vida útil estimada de la hornilla (años)', 'Tasa de interés de la financiación', 'Tiempo mínimo para recuperar la inversión (años)', 'Valor de la panela actualmente ($)', 'Costo financiero ($)', 'Depreciación anual ($)', 'Producción mensual (kg)', 'Producción anual en (kg)', 'Valor de salvamento (5% del total del costo de la hornilla) ($)', 'Ingreso anual aproximado ($)']</t>
+          <t>['¿El diseño incorpora recuperador de calor?', 'Vida útil estimada de la hornilla (años)', 'Tasa de interés de la financiación', 'Tiempo mínimo para recuperar la inversión (años)', 'Valor de la panela actualmente ', 'Costo financiero', 'Depreciación anual', 'Producción mensual (kg)', 'Producción anual en (kg)', 'Valor de salvamento (5% del total del costo de la hornilla)', 'Ingreso anual aproximado']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [267420492, 444247589], [3476358, 5775038], [9331.0, 15552.0], [111974.0, 186624.0], [5488985.0, 9118480.3], [164378419.0, 273964032.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [259982977, 436810074], [3379673, 5678353], [3456.0, 5760.0], [41472.0, 69120.0], [5336325.0, 8965820.3], [60880896.0, 101468160.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 85614221, 72589900.0, 13400000.0, 1712285, 6000000.0, 179316406.0, 106726506.0]</t>
+          <t>['Valor aproximado', 99614221, 72589900.0, 13400000.0, 1992285, 6000000.0, 193596406.0, 121006506.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [24.0, 40.0], [140, 84], [84, 51], [0, 8], [322, 193], [98, 59], [8, 5], [695, 417], [1347, 817]]</t>
+          <t>[['NO', 'SI'], [23.4, 39.0], [144, 87], [87, 52], [0, 9], [330, 198], [100, 60], [8, 5], [713, 428], [1382, 839]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [259982977, 436810074], [3379673, 5678353], [3456.0, 5760.0], [41472.0, 69120.0], [5336325.0, 8965820.3], [60880896.0, 101468160.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [294768683, 471595780], [3831873, 6130553], [3370.0, 5616.0], [40435.0, 67392.0], [6050325.0, 9679820.3], [59358874.0, 98931456.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 99614221, 72589900.0, 13400000.0, 1992285, 6000000.0, 193596406.0, 121006506.0]</t>
+          <t>['Valor aproximado', 91247554, 72589900.0, 13400000.0, 1824952, 6000000.0, 185062406.0, 112472506.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [23.4, 39.0], [144, 87], [87, 52], [0, 9], [330, 198], [100, 60], [8, 5], [713, 428], [1382, 839]]</t>
+          <t>[['NO', 'SI'], [46.199999999999996, 77.0], [135, 81], [88, 53], [0, 3], [336, 202], [51, 31], [4, 3], [361, 217], [975, 590]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [294768683, 471595780], [3831873, 6130553], [3370.0, 5616.0], [40435.0, 67392.0], [6050325.0, 9679820.3], [59358874.0, 98931456.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [273980082, 450807180], [3561630, 5860310], [6653.0, 11088.0], [79834.0, 133056.0], [5623625.0, 9253120.3], [117195725.0, 195326208.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 91247554, 72589900.0, 13400000.0, 1824952, 6000000.0, 185062406.0, 112472506.0]</t>
+          <t>['Valor aproximado', 128972448, 72589900.0, 14900000.0, 2579449, 6000000.0, 225041797.0, 152451897.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [46.199999999999996, 77.0], [135, 81], [88, 53], [0, 3], [336, 202], [51, 31], [4, 3], [361, 217], [975, 590]]</t>
+          <t>[['NO', 'SI'], [22.8, 38.0], [148, 89], [89, 53], [0, 9], [339, 204], [103, 62], [8, 5], [1462, 878], [2149, 1300]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [273980082, 450807180], [3561630, 5860310], [6653.0, 11088.0], [79834.0, 133056.0], [5623625.0, 9253120.3], [117195725.0, 195326208.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [371368833, 548195930], [4827644, 7126324], [3283.0, 5472.0], [39398.0, 65664.0], [7622595.0, 11252089.850000001], [57836851.0, 96394752.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 128972448, 72589900.0, 14900000.0, 2579449, 6000000.0, 225041797.0, 152451897.0]</t>
+          <t>['Valor aproximado', 140965781, 72589900.0, 14900000.0, 2819316, 6000000.0, 237274997.0, 164685097.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [22.8, 38.0], [148, 89], [89, 53], [0, 9], [339, 204], [103, 62], [8, 5], [1462, 878], [2149, 1300]]</t>
+          <t>[['NO', 'SI'], [63.599999999999994, 106.0], [106, 64], [69, 41], [0, 2], [340, 204], [37, 23], [3, 2], [525, 315], [1080, 651]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [371368833, 548195930], [4827644, 7126324], [3283.0, 5472.0], [39398.0, 65664.0], [7622595.0, 11252089.850000001], [57836851.0, 96394752.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [401168588, 577995685], [5215029, 7513709], [9158.0, 15264.0], [109901.0, 183168.0], [8234255.0, 11863749.850000001], [161334374.0, 268890624.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 140965781, 72589900.0, 14900000.0, 2819316, 6000000.0, 237274997.0, 164685097.0]</t>
+          <t>['Valor aproximado', 148965781, 72589900.0, 14900000.0, 2979316, 6000000.0, 245434997.0, 172845097.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [63.599999999999994, 106.0], [106, 64], [69, 41], [0, 2], [340, 204], [37, 23], [3, 2], [525, 315], [1080, 651]]</t>
+          <t>[['NO', 'SI'], [64.8, 108.0], [104, 62], [67, 41], [0, 2], [334, 200], [37, 22], [3, 2], [515, 309], [1060, 638]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [401168588, 577995685], [5215029, 7513709], [9158.0, 15264.0], [109901.0, 183168.0], [8234255.0, 11863749.850000001], [161334374.0, 268890624.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [421046135, 597873232], [5473429, 7772109], [9331.0, 15552.0], [111974.0, 186624.0], [8642255.0, 12271749.850000001], [164378419.0, 273964032.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 148965781, 72589900.0, 14900000.0, 2979316, 6000000.0, 245434997.0, 172845097.0]</t>
+          <t>['Valor aproximado', 150665781, 72589900.0, 14900000.0, 3013316, 6000000.0, 247168997.0, 174579097.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [64.8, 108.0], [104, 62], [67, 41], [0, 2], [334, 200], [37, 22], [3, 2], [515, 309], [1060, 638]]</t>
+          <t>[['NO', 'SI'], [63.599999999999994, 106.0], [106, 64], [69, 41], [0, 2], [340, 204], [37, 23], [3, 2], [525, 315], [1080, 651]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [421046135, 597873232], [5473429, 7772109], [9331.0, 15552.0], [111974.0, 186624.0], [8642255.0, 12271749.850000001], [164378419.0, 273964032.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [425270113, 602097210], [5528339, 7827019], [9158.0, 15264.0], [109901.0, 183168.0], [8728955.0, 12358449.850000001], [161334374.0, 268890624.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 150665781, 72589900.0, 14900000.0, 3013316, 6000000.0, 247168997.0, 174579097.0]</t>
+          <t>['Valor aproximado', 140972448, 72589900.0, 14900000.0, 2819449, 6000000.0, 237281797.0, 164691897.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [63.599999999999994, 106.0], [106, 64], [69, 41], [0, 2], [340, 204], [37, 23], [3, 2], [525, 315], [1080, 651]]</t>
+          <t>[['NO', 'SI'], [23.4, 39.0], [144, 87], [87, 52], [0, 9], [330, 198], [100, 60], [8, 5], [1425, 855], [2094, 1266]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [425270113, 602097210], [5528339, 7827019], [9158.0, 15264.0], [109901.0, 183168.0], [8728955.0, 12358449.850000001], [161334374.0, 268890624.0]]</t>
+          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [401185153, 578012250], [5215244, 7513924], [3370.0, 5616.0], [40435.0, 67392.0], [8234595.0, 11864089.850000001], [59358874.0, 98931456.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 140972448, 72589900.0, 14900000.0, 2819449, 6000000.0, 237281797.0, 164691897.0]</t>
+          <t>['Valor aproximado', 109126394, 72589900.0, 13400000.0, 2182528, 6000000.0, 203298822.0, 130708922.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [23.4, 39.0], [144, 87], [87, 52], [0, 9], [330, 198], [100, 60], [8, 5], [1425, 855], [2094, 1266]]</t>
+          <t>[['SI', 'NO'], [150.0, 125.0], [45, 54], [29, 35], [0, 1], [144, 173], [16, 19], [2, 2], [139, 167], [375, 451]]</t>
         </is>
       </c>
     </row>
@@ -410,12 +410,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['¿El diseño incorpora recuperador de calor?', 'Vida útil estimada de la hornilla (años)', 'Tasa de interés de la financiación', 'Tiempo mínimo para recuperar la inversión (años)', 'Valor de la panela actualmente ', 'Costo financiero', 'Depreciación anual', 'Producción mensual (kg)', 'Producción anual en (kg)', 'Valor de salvamento (5% del total del costo de la hornilla)', 'Ingreso anual aproximado']</t>
+          <t>['¿El diseño incorpora recuperador de calor?', 'Vida útil estimada de la hornilla (años)', 'Tasa de interés de la financiación', 'Tiempo mínimo para recuperar la inversión (años)', 'Valor de la panela para el cálculo ', 'Costo financiero', 'Depreciación anual', 'Producción mensual (kg)', 'Producción anual en (kg)', 'Valor de salvamento (5% del total del costo de la hornilla)', 'Ingreso anual aproximado']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [401185153, 578012250], [5215244, 7513924], [3370.0, 5616.0], [40435.0, 67392.0], [8234595.0, 11864089.850000001], [59358874.0, 98931456.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [495230612, 318403515], [6437797, 4139116], [21600.0, 18000.0], [259200.0, 216000.0], [10164941.100000001, 6535446.0], [380505600.0, 317088000.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 109126394, 72589900.0, 13400000.0, 2182528, 6000000.0, 203298822.0, 130708922.0]</t>
+          <t>['Valor aproximado', 85014221, 72589900.0, 13400000.0, 1700285, 6000000.0, 178704406.0, 106114506.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [150.0, 125.0], [45, 54], [29, 35], [0, 1], [144, 173], [16, 19], [2, 2], [139, 167], [375, 451]]</t>
+          <t>[['SI', 'NO'], [100.0, 75.0], [34, 45], [21, 27], [0, 3], [88, 117], [24, 32], [2, 3], [167, 223], [336, 450]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [495230612, 318403515], [6437797, 4139116], [21600.0, 18000.0], [259200.0, 216000.0], [10164941.100000001, 6535446.0], [380505600.0, 317088000.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [435319258, 258492161], [5658973, 3360293], [14400.0, 10800.0], [172800.0, 129600.0], [8935220.3, 5305725.0], [253670400.0, 190252800.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 85014221, 72589900.0, 13400000.0, 1700285, 6000000.0, 178704406.0, 106114506.0]</t>
+          <t>['Valor aproximado', 103514221, 72589900.0, 13400000.0, 2070285, 6000000.0, 197574406.0, 124984506.0]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [435319258, 258492161], [5658973, 3360293], [14400.0, 10800.0], [172800.0, 129600.0], [8935220.3, 5305725.0], [253670400.0, 190252800.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [481286084, 304458987], [6256523, 3957843], [14400.0, 10800.0], [172800.0, 129600.0], [9878720.3, 6249225.0], [253670400.0, 190252800.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 103514221, 72589900.0, 13400000.0, 2070285, 6000000.0, 197574406.0, 124984506.0]</t>
+          <t>['Valor aproximado', 103133061, 72589900.0, 13400000.0, 2062662, 6000000.0, 197185623.0, 124595723.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [100.0, 75.0], [34, 45], [21, 27], [0, 3], [88, 117], [24, 32], [2, 3], [167, 223], [336, 450]]</t>
+          <t>[['SI', 'NO'], [100.0, 75.0], [34, 45], [21, 27], [0, 3], [88, 117], [24, 32], [2, 3], [209, 278], [378, 505]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [481286084, 304458987], [6256523, 3957843], [14400.0, 10800.0], [172800.0, 129600.0], [9878720.3, 6249225.0], [253670400.0, 190252800.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [480339019, 303511922], [6244212, 3945532], [14400.0, 10800.0], [172800.0, 129600.0], [9859281.15, 6229786.0], [253670400.0, 190252800.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 103133061, 72589900.0, 13400000.0, 2062662, 6000000.0, 197185623.0, 124595723.0]</t>
+          <t>['Valor aproximado', 134014221, 72589900.0, 13400000.0, 2680285, 6000000.0, 228684406.0, 156094506.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [100.0, 75.0], [34, 45], [21, 27], [0, 3], [88, 117], [24, 32], [2, 3], [209, 278], [378, 505]]</t>
+          <t>[['SI', 'NO'], [100.0, 75.0], [34, 45], [21, 27], [0, 3], [88, 117], [24, 32], [2, 3], [167, 223], [336, 450]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [480339019, 303511922], [6244212, 3945532], [14400.0, 10800.0], [172800.0, 129600.0], [9859281.15, 6229786.0], [253670400.0, 190252800.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [557069230, 380242133], [7241673, 4942993], [14400.0, 10800.0], [172800.0, 129600.0], [11434220.3, 7804725.0], [253670400.0, 190252800.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 134014221, 72589900.0, 13400000.0, 2680285, 6000000.0, 228684406.0, 156094506.0]</t>
+          <t>['Valor aproximado', 132114221, 72589900.0, 13400000.0, 2642285, 6000000.0, 226746406.0, 154156506.0]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [557069230, 380242133], [7241673, 4942993], [14400.0, 10800.0], [172800.0, 129600.0], [11434220.3, 7804725.0], [253670400.0, 190252800.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [552348313, 375521216], [7180303, 4881623], [14400.0, 10800.0], [172800.0, 129600.0], [11337320.3, 7707825.0], [253670400.0, 190252800.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 132114221, 72589900.0, 13400000.0, 2642285, 6000000.0, 226746406.0, 154156506.0]</t>
+          <t>['Valor aproximado', 87564221, 72589900.0, 61200000.0, 1751285, 6000000.0, 229105406.0, 156515506.0]</t>
         </is>
       </c>
     </row>
@@ -395,12 +395,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['¿El diseño incorpora recuperador de calor?', 'Capacidad de la hornilla [kg/h]', 'Costo de funcionamiento del molino por kg (Motor eléctrico)', 'Costo de funcionamiento del molino por kg (Motor diesel o gasolina)', 'Costo de funcionamiento del controlador por kg', 'Costo del kg de caña', 'Costo de los insumos para la producción (Cera-Empaques-Clarificante)', 'Costo del mantenimiento de la hornilla por kg', 'Costo de los operarios por kg', 'Valor total del kg de caña']</t>
+          <t>['¿El diseño incorpora recuperador de calor?', 'Capacidad de la hornilla [kg/h]', 'Costo de funcionamiento del molino por kg (Motor eléctrico)', 'Costo de funcionamiento del controlador por kg', 'Costo del kg de caña', 'Costo de los insumos para la producción (Cera-Empaques-Clarificante)', 'Costo del mantenimiento de la hornilla por kg', 'Costo de los operarios por kg', 'Valor total del kg de caña']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [100.0, 75.0], [34, 45], [21, 27], [0, 3], [88, 117], [24, 32], [2, 3], [167, 223], [336, 450]]</t>
+          <t>[['NO', 'SI'], [75.0, 100.0], [45, 34], [0, 2], [117, 88], [32, 24], [3, 2], [223, 167], [420, 317]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [552348313, 375521216], [7180303, 4881623], [14400.0, 10800.0], [172800.0, 129600.0], [11337320.3, 7707825.0], [253670400.0, 190252800.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [558094775, 381267678], [7255005, 4956325], [18000.0, 14400.0], [216000.0, 172800.0], [11455270.3, 7825775.0], [317088000.0, 253670400.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 87564221, 72589900.0, 61200000.0, 1751285, 6000000.0, 229105406.0, 156515506.0]</t>
+          <t>['Valor aproximado', 88064221, 72589900.0, 61200000.0, 1761285, 6000000.0, 229615406.0, 157025506.0]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [558094775, 381267678], [7255005, 4956325], [18000.0, 14400.0], [216000.0, 172800.0], [11455270.3, 7825775.0], [317088000.0, 253670400.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [559337122, 382510025], [7271155, 4972475], [18000.0, 14400.0], [216000.0, 172800.0], [11480770.3, 7851275.0], [317088000.0, 253670400.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 88064221, 72589900.0, 61200000.0, 1761285, 6000000.0, 229615406.0, 157025506.0]</t>
+          <t>['Valor aproximado', 89064221, 72589900.0, 61200000.0, 1781285, 6000000.0, 230635406.0, 158045506.0]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [559337122, 382510025], [7271155, 4972475], [18000.0, 14400.0], [216000.0, 172800.0], [11480770.3, 7851275.0], [317088000.0, 253670400.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [561821815, 384994718], [7303455, 5004775], [18000.0, 14400.0], [216000.0, 172800.0], [11531770.3, 7902275.0], [317088000.0, 253670400.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 89064221, 72589900.0, 61200000.0, 1781285, 6000000.0, 230635406.0, 158045506.0]</t>
+          <t>['Valor aproximado', 88747554, 72589900.0, 61200000.0, 1774952, 6000000.0, 230312406.0, 157722506.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [75.0, 100.0], [45, 34], [0, 2], [117, 88], [32, 24], [3, 2], [223, 167], [420, 317]]</t>
+          <t>[['NO', 'SI'], [75.0, 100.0], [23, 18], [0, 2], [73, 55], [32, 24], [3, 2], [223, 167], [354, 268]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [561821815, 384994718], [7303455, 5004775], [18000.0, 14400.0], [216000.0, 172800.0], [11531770.3, 7902275.0], [317088000.0, 253670400.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [561034996, 384207899], [7293227, 4994547], [18000.0, 14400.0], [216000.0, 172800.0], [11515620.3, 7886125.0], [317088000.0, 253670400.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 88747554, 72589900.0, 61200000.0, 1774952, 6000000.0, 230312406.0, 157722506.0]</t>
+          <t>['Valor aproximado', 81116394, 72589900.0, 61200000.0, 1622328, 6000000.0, 222528622.0, 149938722.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [75.0, 100.0], [23, 18], [0, 2], [73, 55], [32, 24], [3, 2], [223, 167], [354, 268]]</t>
+          <t>[['NO', 'SI'], [75.0, 100.0], [29, 22], [0, 2], [83, 63], [32, 24], [3, 2], [278, 209], [425, 322]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [561034996, 384207899], [7293227, 4994547], [18000.0, 14400.0], [216000.0, 172800.0], [11515620.3, 7886125.0], [317088000.0, 253670400.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [542073902, 365246804], [7046740, 4748060], [18000.0, 14400.0], [216000.0, 172800.0], [11126431.100000001, 7496936.0], [317088000.0, 253670400.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 81116394, 72589900.0, 61200000.0, 1622328, 6000000.0, 222528622.0, 149938722.0]</t>
+          <t>['Valor aproximado', 90497554, 72589900.0, 61200000.0, 1809952, 6000000.0, 232097406.0, 159507506.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [75.0, 100.0], [29, 22], [0, 2], [83, 63], [32, 24], [3, 2], [278, 209], [425, 322]]</t>
+          <t>[['NO', 'SI'], [125.0, 150.0], [50, 42], [0, 1], [78, 65], [19, 16], [2, 2], [134, 112], [283, 238]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [542073902, 365246804], [7046740, 4748060], [18000.0, 14400.0], [216000.0, 172800.0], [11126431.100000001, 7496936.0], [317088000.0, 253670400.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [565383209, 388556112], [7349752, 5051072], [17325.0, 14850.0], [207900.0, 178200.0], [11604870.3, 7975375.0], [305197200.0, 261597600.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 90497554, 72589900.0, 61200000.0, 1809952, 6000000.0, 232097406.0, 159507506.0]</t>
+          <t>['Valor aproximado', 88197554, 72589900.0, 61200000.0, 1763952, 6000000.0, 229751406.0, 157161506.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [125.0, 150.0], [50, 42], [0, 1], [78, 65], [19, 16], [2, 2], [134, 112], [283, 238]]</t>
+          <t>[['NO', 'SI'], [125.0, 150.0], [38, 32], [0, 1], [104, 86], [13, 11], [1, 1], [87, 73], [243, 204]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [565383209, 388556112], [7349752, 5051072], [17325.0, 14850.0], [207900.0, 178200.0], [11604870.3, 7975375.0], [305197200.0, 261597600.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [559668414, 382841317], [7275462, 4976782], [26709.0, 22893.75], [320512.0, 274725.0], [11487570.3, 7858075.0], [470512350.0, 403296300.0]]</t>
         </is>
       </c>
     </row>

--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 88197554, 72589900.0, 61200000.0, 1763952, 6000000.0, 229751406.0, 157161506.0]</t>
+          <t>['Valor aproximado', 56965127, 72589900.0, 61200000.0, 1139303, 6000000.0, 197894330.0, 125304430.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [125.0, 150.0], [38, 32], [0, 1], [104, 86], [13, 11], [1, 1], [87, 73], [243, 204]]</t>
+          <t>[['NO', 'SI'], [75.0, 100.0], [12, 9], [0, 1], [158, 119], [16, 12], [2, 1], [84, 63], [272, 205]]</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [559668414, 382841317], [7275462, 4976782], [26709.0, 22893.75], [320512.0, 274725.0], [11487570.3, 7858075.0], [470512350.0, 403296300.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [482065411, 305238314], [6266654, 3967974], [280500.0, 224400.0], [3366000.0, 2692800.0], [9894716.5, 6265222.0], [4941288000.0, 3953030400.0]]</t>
         </is>
       </c>
     </row>
